--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,110 @@
   </si>
   <si>
     <t>不选记住用户，登入后关闭应用。然后打开应用后点退出登入，跳到白屏页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>图表单位</t>
+  </si>
+  <si>
+    <t>2号报表查询时间太长</t>
+  </si>
+  <si>
+    <t>3号报表输出数据列pdf和word不统一。多一个 碎料库存量</t>
+  </si>
+  <si>
+    <t>project基本查询给出的sql使用xmbbh AS xmbdm, 是否有意为之。使id和编码容易混淆。暂时使用xmbbh AS xmbdm模式</t>
+  </si>
+  <si>
+    <t>ajax调用赋值没完成就跳转到下一个页面，导致获取不到dom对象的js错误</t>
+  </si>
+  <si>
+    <t>ajax调用异常和超时的处理策略</t>
+  </si>
+  <si>
+    <t>没有网络的处理策略。包括初始就没有网络和运行中没有网络</t>
+  </si>
+  <si>
+    <t>图表坐标，文字描述，格式，单位check一遍</t>
+  </si>
+  <si>
+    <t>报表查询强制横屏展示</t>
+  </si>
+  <si>
+    <t>报表表头列宽调整，单位check</t>
+  </si>
+  <si>
+    <t>图表数据正确性检查</t>
+  </si>
+  <si>
+    <t>报表数据正确性检查</t>
+  </si>
+  <si>
+    <t>页面向左向右滑动禁止掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gxy_dm_stockground表无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件页面子公司，项目也要级联。 需求并未提供此级联的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>报表图表查询参数校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,13 +636,14 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G17 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
@@ -607,193 +712,355 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5">
+        <v>42774</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5">
+        <v>42774</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="5">
+        <v>42774</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="5">
+        <v>42774</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42774</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="5">
+        <v>42774</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5">
+        <v>42774</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5">
+        <v>42774</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5">
+        <v>42774</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="5">
+        <v>42774</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="5">
+        <v>42774</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="5">
+        <v>42774</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="5">
+        <v>42774</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="5">
+        <v>42774</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="5">
+        <v>42774</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="5">
+        <v>42774</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>

--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,39 @@
   </si>
   <si>
     <t>报表图表查询参数校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>benny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>收购量图表页面默认选中当前年、当前月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购量图表页面两个饼图名称相反，类别（整料、碎料），品种（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>收购量图表无年月日+子公司代码不查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,91 +303,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -389,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,25 +601,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G17 G18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="57.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="57.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -703,13 +671,9 @@
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="5">
         <v>42730</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -721,17 +685,12 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="5">
         <v>42774</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -743,17 +702,12 @@
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="5">
         <v>42774</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -765,17 +719,12 @@
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="5">
         <v>42774</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -787,17 +736,12 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="5">
         <v>42774</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -809,7 +753,6 @@
       <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
@@ -819,9 +762,6 @@
       <c r="G7" s="5">
         <v>42774</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -833,17 +773,12 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
       <c r="G8" s="5">
         <v>42774</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -855,17 +790,12 @@
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="5">
         <v>42774</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -877,17 +807,12 @@
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4"/>
       <c r="G10" s="5">
         <v>42774</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -899,17 +824,12 @@
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4"/>
       <c r="G11" s="5">
         <v>42774</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -921,17 +841,12 @@
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4"/>
       <c r="G12" s="5">
         <v>42774</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -943,17 +858,12 @@
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="5">
         <v>42774</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -965,17 +875,12 @@
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="4"/>
       <c r="G14" s="5">
         <v>42774</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -987,17 +892,12 @@
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="4"/>
       <c r="G15" s="5">
         <v>42774</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1009,19 +909,14 @@
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4"/>
       <c r="G16" s="5">
         <v>42774</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1031,19 +926,14 @@
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4"/>
       <c r="G17" s="5">
         <v>42774</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1053,46 +943,74 @@
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="4"/>
       <c r="G18" s="5">
         <v>42774</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42774</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <t>000019</t>
   </si>
   <si>
-    <t>收购量图表页面默认选中当前年、当前月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收购量图表页面两个饼图名称相反，类别（整料、碎料），品种（）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +208,36 @@
   </si>
   <si>
     <t>收购量图表无年月日+子公司代码不查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购量图表页面默认选中当前年、当前月、当前日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>收购量图表下的两个饼图，当无数据时显示空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>财务报表无SQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -955,12 +981,15 @@
         <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="5">
@@ -972,16 +1001,16 @@
         <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5">
         <v>42774</v>
@@ -989,22 +1018,62 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="5">
         <v>42774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42778</v>
       </c>
     </row>
   </sheetData>

--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>财务报表无SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>卸料量查询列表输入日期查询条件无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>倒运量查询列表输入日期查询条件无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -942,7 +960,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -959,7 +977,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
@@ -976,7 +994,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1074,6 +1092,52 @@
       </c>
       <c r="G23" s="5">
         <v>42778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42778</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42778</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>财务报表无SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地保存成功后的user不用再去发ajax检查用户登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>盘存信息查询-直接查询-年份4254年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>首页-查询报表-任意一个查询-左上角返回-物理返回-物理返回 null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,6 +347,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,14 +427,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -383,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,11 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1076,6 +1162,40 @@
         <v>42778</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42778</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,7 +1210,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -252,10 +252,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>首页-查询报表-任意一个查询-左上角返回-物理返回-物理返回 null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>000024</t>
-  </si>
-  <si>
-    <t>首页-查询报表-任意一个查询-左上角返回-物理返回-物理返回 null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1181,10 +1182,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>13</v>
